--- a/overige_bestanden/strokenplanning.xlsx
+++ b/overige_bestanden/strokenplanning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoahM\Documents\Vista Software Developer\Leerjaar 1\game\overige_bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1ED0C7-423A-4511-8735-F5244BACE6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9EB975-B8DC-45AC-ADBC-52BD8231786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -51,9 +51,6 @@
     <t>LeanBoard</t>
   </si>
   <si>
-    <t>Succesfactoren invullen</t>
-  </si>
-  <si>
     <t>Teamafspraken maken</t>
   </si>
   <si>
@@ -90,18 +87,6 @@
     <t>Week 3</t>
   </si>
   <si>
-    <t>Uitdagingen benoemen</t>
-  </si>
-  <si>
-    <t>Taken</t>
-  </si>
-  <si>
-    <t>Taken verdelen op basis van functionaliteiten</t>
-  </si>
-  <si>
-    <t>Plannen op basis van doelen, resultaten, succesfactoren en uitdagingen</t>
-  </si>
-  <si>
     <t>Ontwikkelproces</t>
   </si>
   <si>
@@ -127,27 +112,6 @@
   </si>
   <si>
     <t>Testen</t>
-  </si>
-  <si>
-    <t>Presentatie</t>
-  </si>
-  <si>
-    <t>Voorbereiden</t>
-  </si>
-  <si>
-    <t>Presenteren</t>
-  </si>
-  <si>
-    <t>emilia/bram</t>
-  </si>
-  <si>
-    <t>jonathan/lahcen</t>
-  </si>
-  <si>
-    <t>sem/keith</t>
-  </si>
-  <si>
-    <t>jelle/stefan</t>
   </si>
   <si>
     <t>Voorbereiding</t>
@@ -263,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,37 +248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,11 +288,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -370,19 +304,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -692,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,20 +629,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P64" sqref="P64"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="56.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22" style="12" customWidth="1"/>
+    <col min="3" max="3" width="22" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.5">
@@ -723,82 +652,82 @@
     </row>
     <row r="2" spans="1:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="D2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
       <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -806,70 +735,49 @@
         <v>4</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>44</v>
+      <c r="F7" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -886,35 +794,31 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -930,238 +834,376 @@
     </row>
     <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="F18" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+    </row>
+    <row r="20" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="7"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="13"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P56" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q65" s="16" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="55" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+    </row>
+    <row r="63" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
